--- a/Phase_2/docs/Survey_Gaant.xlsx
+++ b/Phase_2/docs/Survey_Gaant.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Individual_Project\Estrada-CSC-17B-Individual-Project-Survey-Engine\Phase_2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E36C98-ADC1-4532-9F16-D6E4F3262927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017C9097-E6BD-400E-8BB3-9124A8EBEA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,17 +757,20 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -787,20 +790,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1292,8 +1292,8 @@
   </sheetPr>
   <dimension ref="A1:BL28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1318,163 +1318,163 @@
       <c r="C1" s="9"/>
       <c r="D1" s="10"/>
       <c r="E1" s="11"/>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="66">
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="67">
         <v>45747</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="58"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="64">
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="65">
         <v>1</v>
       </c>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
     </row>
     <row r="3" spans="1:64" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
       <c r="B3" s="55"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="54"/>
-      <c r="I3" s="61">
+      <c r="I3" s="74">
         <f>I4</f>
         <v>45747</v>
       </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59">
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72">
         <f>P4</f>
         <v>45754</v>
       </c>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59">
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72">
         <f>W4</f>
         <v>45761</v>
       </c>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59">
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72">
         <f>AD4</f>
         <v>45768</v>
       </c>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59">
+      <c r="AE3" s="72"/>
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="72">
         <f>AK4</f>
         <v>45775</v>
       </c>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59">
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72"/>
+      <c r="AR3" s="72">
         <f>AR4</f>
         <v>45782</v>
       </c>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="59"/>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="59"/>
-      <c r="AX3" s="59"/>
-      <c r="AY3" s="59">
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="72"/>
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="72">
         <f>AY4</f>
         <v>45789</v>
       </c>
-      <c r="AZ3" s="59"/>
-      <c r="BA3" s="59"/>
-      <c r="BB3" s="59"/>
-      <c r="BC3" s="59"/>
-      <c r="BD3" s="59"/>
-      <c r="BE3" s="59"/>
-      <c r="BF3" s="59">
+      <c r="AZ3" s="72"/>
+      <c r="BA3" s="72"/>
+      <c r="BB3" s="72"/>
+      <c r="BC3" s="72"/>
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="72">
         <f>BF4</f>
         <v>45796</v>
       </c>
-      <c r="BG3" s="59"/>
-      <c r="BH3" s="59"/>
-      <c r="BI3" s="59"/>
-      <c r="BJ3" s="59"/>
-      <c r="BK3" s="59"/>
-      <c r="BL3" s="60"/>
+      <c r="BG3" s="72"/>
+      <c r="BH3" s="72"/>
+      <c r="BI3" s="72"/>
+      <c r="BJ3" s="72"/>
+      <c r="BK3" s="72"/>
+      <c r="BL3" s="73"/>
     </row>
     <row r="4" spans="1:64" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="63" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="13">
@@ -1703,12 +1703,12 @@
       </c>
     </row>
     <row r="5" spans="1:64" s="12" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="I5" s="16" t="str">
         <f t="shared" ref="I5:AN5" si="3">LEFT(TEXT(I4,"ddd"),1)</f>
         <v>M</v>
@@ -2782,7 +2782,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="45">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E19" s="46">
         <f>E18+2</f>
@@ -2863,7 +2863,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="45">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E20" s="46">
         <f>F19</f>
@@ -2944,7 +2944,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="45">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="46">
         <f>E18</f>
@@ -3022,7 +3022,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="45">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="E22" s="46">
         <f>F20</f>
@@ -3100,7 +3100,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="46">
         <f>E18</f>
@@ -3180,7 +3180,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="45">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E24" s="46">
         <f>E18</f>
@@ -3332,16 +3332,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="M2:V2"/>
-    <mergeCell ref="M1:V1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="F2:L2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="BF3:BL3"/>
     <mergeCell ref="I3:O3"/>
@@ -3352,6 +3342,16 @@
     <mergeCell ref="AR3:AX3"/>
     <mergeCell ref="AY3:BE3"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="M2:V2"/>
+    <mergeCell ref="M1:V1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D25">
     <cfRule type="dataBar" priority="23">
@@ -3435,26 +3435,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3766,6 +3746,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3776,18 +3776,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A09426A3-87E9-4865-8A6C-3456B026AE03}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3808,6 +3796,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
